--- a/data/trans_orig/P17G-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4741</v>
+        <v>4949</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01976790999792536</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09594432395723268</v>
+        <v>0.1001692826920985</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4520</v>
+        <v>5387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008449097700621978</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03910273998376115</v>
+        <v>0.04659873581561738</v>
       </c>
     </row>
     <row r="6">
@@ -854,19 +854,19 @@
         <v>8146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3745</v>
+        <v>3766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14270</v>
+        <v>14612</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1648729146430723</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07579729148463422</v>
+        <v>0.07622326070261605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2888027822802672</v>
+        <v>0.2957347235797821</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -875,19 +875,19 @@
         <v>5753</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2174</v>
+        <v>2093</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12294</v>
+        <v>12380</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08690705596082852</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03284734602858144</v>
+        <v>0.03162235051167218</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.185739782844904</v>
+        <v>0.1870356534172025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -896,19 +896,19 @@
         <v>13899</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8189</v>
+        <v>7785</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22711</v>
+        <v>22180</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.120230819443579</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07083441299680643</v>
+        <v>0.06734108289112249</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.196456780289068</v>
+        <v>0.1918683227042335</v>
       </c>
     </row>
     <row r="7">
@@ -925,19 +925,19 @@
         <v>2706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7369</v>
+        <v>7867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05476250829243904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01695609593456167</v>
+        <v>0.01713174718522469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.149148234623307</v>
+        <v>0.1592108565016913</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5397</v>
+        <v>5380</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01483154453231139</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08153397186069156</v>
+        <v>0.08127982513774842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -967,19 +967,19 @@
         <v>3688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9154</v>
+        <v>9053</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03189863023457946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008700416230226611</v>
+        <v>0.008523633015590084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07918729240041966</v>
+        <v>0.07830925475181066</v>
       </c>
     </row>
     <row r="8">
@@ -996,19 +996,19 @@
         <v>37581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30167</v>
+        <v>31025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42502</v>
+        <v>42961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7605966670665634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6105374452026359</v>
+        <v>0.6279004901773372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8601962457570295</v>
+        <v>0.869482613009776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -1017,19 +1017,19 @@
         <v>59458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52939</v>
+        <v>52431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63162</v>
+        <v>63786</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8982613995068601</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7997733754845123</v>
+        <v>0.7921038256188678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9542195870081852</v>
+        <v>0.963651046404136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>98</v>
@@ -1038,19 +1038,19 @@
         <v>97039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88049</v>
+        <v>88173</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103763</v>
+        <v>103864</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8394214526212196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.761660313357279</v>
+        <v>0.7627296278543877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.897588676253152</v>
+        <v>0.8984610690138587</v>
       </c>
     </row>
     <row r="9">
@@ -1189,19 +1189,19 @@
         <v>3125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8385</v>
+        <v>8446</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03508863620715146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0109785585477039</v>
+        <v>0.01116338025939418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09414043244330743</v>
+        <v>0.09483337358329912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6883</v>
+        <v>6845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01483160714784254</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05204728073773924</v>
+        <v>0.05175658811262736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1231,19 +1231,19 @@
         <v>5087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1974</v>
+        <v>2006</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11038</v>
+        <v>11262</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0229836979860228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008921547439276869</v>
+        <v>0.009063147231487722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04987373565180507</v>
+        <v>0.05088664523928801</v>
       </c>
     </row>
     <row r="12">
@@ -1263,16 +1263,16 @@
         <v>1007</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13651</v>
+        <v>11878</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05185705383367563</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01131196429586003</v>
+        <v>0.01130185468166115</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1532708550344179</v>
+        <v>0.1333643827276475</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1281,19 +1281,19 @@
         <v>6244</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2124</v>
+        <v>2166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12265</v>
+        <v>12542</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04720960360081639</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01606155143468015</v>
+        <v>0.01637515903114933</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09273724913187988</v>
+        <v>0.09483349880199035</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1302,19 +1302,19 @@
         <v>10862</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4999</v>
+        <v>5205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19998</v>
+        <v>19931</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04907988953234494</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02258689439897029</v>
+        <v>0.02351950538445495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.090360613813564</v>
+        <v>0.0900571467335001</v>
       </c>
     </row>
     <row r="13">
@@ -1344,19 +1344,19 @@
         <v>3918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8996</v>
+        <v>9015</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02962898032103548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007428760629937926</v>
+        <v>0.007385561799076662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06801999248394537</v>
+        <v>0.0681624591335132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1365,19 +1365,19 @@
         <v>3918</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8893</v>
+        <v>9733</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01770530986015216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004408684083664584</v>
+        <v>0.004438423890088654</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04018446932276037</v>
+        <v>0.04397843761636312</v>
       </c>
     </row>
     <row r="14">
@@ -1394,19 +1394,19 @@
         <v>81320</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71739</v>
+        <v>72932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85990</v>
+        <v>86037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9130543099591729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.805472111313043</v>
+        <v>0.8188673394901437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9654861119875665</v>
+        <v>0.9660122394801596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -1415,19 +1415,19 @@
         <v>120128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112014</v>
+        <v>112170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125877</v>
+        <v>125273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9083298089303056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8469771490102891</v>
+        <v>0.8481572507348026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.951802083378296</v>
+        <v>0.9472334326384502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>196</v>
@@ -1436,19 +1436,19 @@
         <v>201448</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191251</v>
+        <v>191185</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209222</v>
+        <v>209352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9102311026214801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8641570575823206</v>
+        <v>0.8638570096672086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9453578277917269</v>
+        <v>0.9459446756124515</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5021</v>
+        <v>4932</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009950383770344431</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04995490048585531</v>
+        <v>0.04906543293060301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5944</v>
+        <v>4970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00645025601535703</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03833568149364464</v>
+        <v>0.03205529805100148</v>
       </c>
     </row>
     <row r="18">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5779</v>
+        <v>6562</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01853804863115426</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05749704795078153</v>
+        <v>0.0652807100483503</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5976</v>
+        <v>6408</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01201714048984312</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03853993009838408</v>
+        <v>0.04132379045375554</v>
       </c>
     </row>
     <row r="19">
@@ -1713,19 +1713,19 @@
         <v>3539</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9826</v>
+        <v>9308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06488664763822788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01747530541819793</v>
+        <v>0.01705479282502219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1801510591120962</v>
+        <v>0.1706545526876875</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4589</v>
+        <v>4689</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009004266372890084</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04565653403220728</v>
+        <v>0.04664596278194966</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1755,19 +1755,19 @@
         <v>4444</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1580</v>
+        <v>1027</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10474</v>
+        <v>10152</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02866134475257416</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01019170809115489</v>
+        <v>0.006623002458308045</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0675479000574626</v>
+        <v>0.06547012704012997</v>
       </c>
     </row>
     <row r="20">
@@ -1784,19 +1784,19 @@
         <v>51003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44716</v>
+        <v>45234</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53589</v>
+        <v>53612</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9351133523617721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8198489408879034</v>
+        <v>0.8293454473123126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.982524694581802</v>
+        <v>0.9829452071749779</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -1805,19 +1805,19 @@
         <v>96745</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91209</v>
+        <v>91667</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99603</v>
+        <v>99594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9625073012256112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9074249718236971</v>
+        <v>0.9119867113285945</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.990932561487069</v>
+        <v>0.9908467889928435</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>147</v>
@@ -1826,19 +1826,19 @@
         <v>147748</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>140991</v>
+        <v>140857</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>152051</v>
+        <v>152053</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9528712587422257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9092937525257501</v>
+        <v>0.9084248572950616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9806205297422058</v>
+        <v>0.9806315340010657</v>
       </c>
     </row>
     <row r="21">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5956</v>
+        <v>5938</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01619767006259984</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04966615492786655</v>
+        <v>0.04951308896794843</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6641</v>
+        <v>6908</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01133362227076938</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03874633973679367</v>
+        <v>0.04030791303080222</v>
       </c>
     </row>
     <row r="24">
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5751</v>
+        <v>6421</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03542193797500266</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1117364998475784</v>
+        <v>0.1247572603655541</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6670</v>
+        <v>6715</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01591742055574544</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05561762838102828</v>
+        <v>0.055998188971052</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2082,19 +2082,19 @@
         <v>3732</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8749</v>
+        <v>9075</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0217744916355492</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005495314800408142</v>
+        <v>0.005468832600240957</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05105008705086662</v>
+        <v>0.05294976169809925</v>
       </c>
     </row>
     <row r="25">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4369</v>
+        <v>4661</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01823252426859039</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08488332275221581</v>
+        <v>0.09056637811451158</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2132,19 +2132,19 @@
         <v>2735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7309</v>
+        <v>7426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0228058352325634</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007037484577800128</v>
+        <v>0.007073351105136094</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06094441978645031</v>
+        <v>0.06192250352806208</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2153,19 +2153,19 @@
         <v>3673</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8411</v>
+        <v>9045</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02143250172165124</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005454549776502638</v>
+        <v>0.005468541903177874</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04907555907782914</v>
+        <v>0.0527743981734583</v>
       </c>
     </row>
     <row r="26">
@@ -2182,19 +2182,19 @@
         <v>48705</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44102</v>
+        <v>44031</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50570</v>
+        <v>50602</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.946345537756407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8569164509959893</v>
+        <v>0.8555395855590648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9825850956426881</v>
+        <v>0.9832114994612248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -2203,19 +2203,19 @@
         <v>113335</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107598</v>
+        <v>107584</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>117068</v>
+        <v>117197</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9450790741490913</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8972369340203408</v>
+        <v>0.897122413252378</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9762091984678771</v>
+        <v>0.9772847090146881</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>168</v>
@@ -2224,19 +2224,19 @@
         <v>162039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154578</v>
+        <v>155099</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>166700</v>
+        <v>166701</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9454593843720301</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9019223236954667</v>
+        <v>0.9049609328306109</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9726497461698667</v>
+        <v>0.9726596598721637</v>
       </c>
     </row>
     <row r="27">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6650</v>
+        <v>5832</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04246308405564077</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1487257190138145</v>
+        <v>0.130416011062143</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6453</v>
+        <v>6694</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01571323954130906</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0534032658134063</v>
+        <v>0.05539347481189225</v>
       </c>
     </row>
     <row r="30">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4503</v>
+        <v>3613</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01969391846016738</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1006927406857444</v>
+        <v>0.08080744336899397</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2459,19 +2459,19 @@
         <v>3752</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10241</v>
+        <v>10027</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04929312274129961</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01342437737114722</v>
+        <v>0.01301535655101043</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.134530757516412</v>
+        <v>0.1317254722746042</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2480,19 +2480,19 @@
         <v>4633</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11767</v>
+        <v>11683</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03834009383524709</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009214249218881683</v>
+        <v>0.009177779592326787</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09738075088341799</v>
+        <v>0.0966842185757352</v>
       </c>
     </row>
     <row r="31">
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4134</v>
+        <v>3591</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01810345450644022</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09243909476854781</v>
+        <v>0.08029743481974536</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5111</v>
+        <v>5126</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01333374291301377</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0671402441344869</v>
+        <v>0.06733364381234236</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6424</v>
+        <v>6009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01509874944697778</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05315760562509398</v>
+        <v>0.04972533536893847</v>
       </c>
     </row>
     <row r="32">
@@ -2580,19 +2580,19 @@
         <v>41127</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36555</v>
+        <v>36496</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43791</v>
+        <v>43799</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9197395429777516</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8174871412000856</v>
+        <v>0.8161831116864537</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9793052391512365</v>
+        <v>0.9794819847189811</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>67</v>
@@ -2601,19 +2601,19 @@
         <v>71356</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>64380</v>
+        <v>64741</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>74669</v>
+        <v>75062</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9373731343456866</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8457400579682425</v>
+        <v>0.850484012398561</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9809032081155882</v>
+        <v>0.9860626475268083</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>112</v>
@@ -2622,19 +2622,19 @@
         <v>112483</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>105307</v>
+        <v>105090</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>117215</v>
+        <v>117118</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9308479171764661</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8714638672254272</v>
+        <v>0.8696716760896853</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9700121763158202</v>
+        <v>0.9692102254557731</v>
       </c>
     </row>
     <row r="33">
@@ -2786,19 +2786,19 @@
         <v>2917</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8106</v>
+        <v>8003</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03369506273103026</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01093163736840214</v>
+        <v>0.01079459600994311</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09364238184474757</v>
+        <v>0.0924573941116323</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2807,19 +2807,19 @@
         <v>2917</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7948</v>
+        <v>7997</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0220222678611213</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007098462217888262</v>
+        <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06000573661982559</v>
+        <v>0.06037719301746571</v>
       </c>
     </row>
     <row r="36">
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5831</v>
+        <v>6959</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04118458896225634</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1270940136332971</v>
+        <v>0.1516780554906495</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6221</v>
+        <v>5818</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01426735016329902</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04697328470150806</v>
+        <v>0.04392960903882099</v>
       </c>
     </row>
     <row r="37">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6454</v>
+        <v>6522</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04013883399969187</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1406682412252351</v>
+        <v>0.1421404991870596</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4834</v>
+        <v>4646</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01079229462963747</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05584703936591645</v>
+        <v>0.05366813330477944</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3</v>
@@ -2941,19 +2941,19 @@
         <v>2776</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7466</v>
+        <v>7425</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02095865451870477</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006517584186921801</v>
+        <v>0.006568172796712037</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05637306076496901</v>
+        <v>0.05605839550154721</v>
       </c>
     </row>
     <row r="38">
@@ -2970,19 +2970,19 @@
         <v>42152</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>37214</v>
+        <v>37368</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>44907</v>
+        <v>44925</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9186765770380518</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.811054269489475</v>
+        <v>0.8144153468720814</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.978721626616203</v>
+        <v>0.9791284244468841</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>80</v>
@@ -2991,19 +2991,19 @@
         <v>82712</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>77078</v>
+        <v>76830</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>85557</v>
+        <v>85547</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9555126426393322</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.890426450179598</v>
+        <v>0.8875587939866433</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9883748275813969</v>
+        <v>0.9882651522623636</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>123</v>
@@ -3012,19 +3012,19 @@
         <v>124864</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>118305</v>
+        <v>117992</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>128750</v>
+        <v>128764</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.942751727456875</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8932355112778124</v>
+        <v>0.8908665154635027</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9720980107725735</v>
+        <v>0.9721994948618804</v>
       </c>
     </row>
     <row r="39">
@@ -3163,19 +3163,19 @@
         <v>2671</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7294</v>
+        <v>7251</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01887947185318849</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005870240599739673</v>
+        <v>0.005981239180058085</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05155210826782376</v>
+        <v>0.05124756743225421</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7446</v>
+        <v>6809</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009866144937163486</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03462430439765029</v>
+        <v>0.03165839228222499</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3205,19 +3205,19 @@
         <v>4793</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1755</v>
+        <v>1857</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10172</v>
+        <v>10883</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01344291242991695</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004922950436543636</v>
+        <v>0.005209254454567501</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02852881425521917</v>
+        <v>0.03052109164844717</v>
       </c>
     </row>
     <row r="42">
@@ -3234,19 +3234,19 @@
         <v>3005</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8140</v>
+        <v>8102</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02123435599531668</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.006957371594573223</v>
+        <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05753148735238587</v>
+        <v>0.05726425102870195</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3255,19 +3255,19 @@
         <v>2852</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7843</v>
+        <v>7683</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01326207597361261</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.004137165750098484</v>
+        <v>0.004152617613913047</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03646789962717377</v>
+        <v>0.03572332001698724</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3276,19 +3276,19 @@
         <v>5857</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2857</v>
+        <v>1985</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>12607</v>
+        <v>12819</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01642572379094203</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.008013912218405706</v>
+        <v>0.005566496864485943</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03535869101421861</v>
+        <v>0.03595316735444909</v>
       </c>
     </row>
     <row r="43">
@@ -3305,19 +3305,19 @@
         <v>4596</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1791</v>
+        <v>1816</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10426</v>
+        <v>10380</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03247976502295288</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0126599378419384</v>
+        <v>0.01283284225090148</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07368879153562183</v>
+        <v>0.07336289449490666</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>6</v>
@@ -3326,19 +3326,19 @@
         <v>7416</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>3134</v>
+        <v>2974</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>15720</v>
+        <v>15131</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03448279428163164</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01457428497114241</v>
+        <v>0.01382792310199591</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07309254533260437</v>
+        <v>0.07035747502801534</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>11</v>
@@ -3347,19 +3347,19 @@
         <v>12012</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>6121</v>
+        <v>5639</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>21157</v>
+        <v>20622</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03368793018691667</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01716648580658439</v>
+        <v>0.01581536118751609</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05933667159028858</v>
+        <v>0.0578366517165901</v>
       </c>
     </row>
     <row r="44">
@@ -3376,19 +3376,19 @@
         <v>131222</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>123396</v>
+        <v>124146</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>135938</v>
+        <v>136184</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9274064071285419</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8720998283142104</v>
+        <v>0.8774034142746669</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.960737116468963</v>
+        <v>0.9624760259636863</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>200</v>
@@ -3397,19 +3397,19 @@
         <v>202674</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>194023</v>
+        <v>193585</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>208364</v>
+        <v>208507</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9423889848075923</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9021640268003495</v>
+        <v>0.9001294334475408</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9688470404092202</v>
+        <v>0.969512244791837</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>331</v>
@@ -3418,19 +3418,19 @@
         <v>333895</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>323170</v>
+        <v>323255</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>342361</v>
+        <v>341914</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9364434335922244</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9063617461477367</v>
+        <v>0.90660096678445</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9601870999217351</v>
+        <v>0.9589315536476399</v>
       </c>
     </row>
     <row r="45">
@@ -3569,19 +3569,19 @@
         <v>6624</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2897</v>
+        <v>2863</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14094</v>
+        <v>13250</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03695733436586132</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01616192950807945</v>
+        <v>0.01597554047205748</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07863518609748044</v>
+        <v>0.07392714254521038</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>0</v>
@@ -3603,19 +3603,19 @@
         <v>6624</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2854</v>
+        <v>2828</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>13011</v>
+        <v>13024</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01536983039643859</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006621863341221439</v>
+        <v>0.006562573333399083</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03018983245442296</v>
+        <v>0.03021961241242666</v>
       </c>
     </row>
     <row r="48">
@@ -3632,19 +3632,19 @@
         <v>8954</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3873</v>
+        <v>3956</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>17534</v>
+        <v>17042</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04995551091474457</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02160962803393214</v>
+        <v>0.0220690078119029</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.09782754652076339</v>
+        <v>0.09508119468676408</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>6</v>
@@ -3653,19 +3653,19 @@
         <v>7017</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2705</v>
+        <v>2499</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>14955</v>
+        <v>14147</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02787299039868021</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01074528340309562</v>
+        <v>0.009927861450772213</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05940469382358199</v>
+        <v>0.05619734698310386</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>14</v>
@@ -3674,19 +3674,19 @@
         <v>15971</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>9116</v>
+        <v>8701</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>26294</v>
+        <v>27220</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03705667750386558</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02115249358875799</v>
+        <v>0.02018905445086994</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.06100939644797278</v>
+        <v>0.0631583755895188</v>
       </c>
     </row>
     <row r="49">
@@ -3703,19 +3703,19 @@
         <v>2727</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7304</v>
+        <v>7093</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01521228069563677</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.004460784568007769</v>
+        <v>0.004458003378186371</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04075240936665726</v>
+        <v>0.03957242027718866</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>7</v>
@@ -3724,19 +3724,19 @@
         <v>7851</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>3622</v>
+        <v>3377</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>16190</v>
+        <v>17144</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.03118537966022545</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01438877880464316</v>
+        <v>0.01341581838291957</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.06431350602940825</v>
+        <v>0.06810342195323046</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>10</v>
@@ -3745,19 +3745,19 @@
         <v>10577</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>5056</v>
+        <v>5574</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>18352</v>
+        <v>18778</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02454248113402556</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01173220602258591</v>
+        <v>0.01293450071191634</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04258268947378133</v>
+        <v>0.04357055467447618</v>
       </c>
     </row>
     <row r="50">
@@ -3774,19 +3774,19 @@
         <v>160931</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>151459</v>
+        <v>151744</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>168109</v>
+        <v>168048</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8978748740237573</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8450286307095595</v>
+        <v>0.8466219501763053</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9379240722193827</v>
+        <v>0.9375850149432489</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>223</v>
@@ -3795,19 +3795,19 @@
         <v>236875</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>225119</v>
+        <v>227186</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>243116</v>
+        <v>243775</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9409416299410943</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8942439400384887</v>
+        <v>0.9024556075796231</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9657330321980476</v>
+        <v>0.9683514423486336</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>383</v>
@@ -3816,19 +3816,19 @@
         <v>397805</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>384594</v>
+        <v>385089</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>407354</v>
+        <v>408082</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9230310109656703</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8923773685444846</v>
+        <v>0.8935265957535441</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9451874431923935</v>
+        <v>0.9468775845850612</v>
       </c>
     </row>
     <row r="51">
@@ -3967,19 +3967,19 @@
         <v>15296</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>9205</v>
+        <v>9425</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>24519</v>
+        <v>24342</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.02332386797424452</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01403617033009172</v>
+        <v>0.01437169656645596</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03738792803970827</v>
+        <v>0.03711703020435182</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>10</v>
@@ -3988,19 +3988,19 @@
         <v>9943</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>4929</v>
+        <v>4948</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>17778</v>
+        <v>17453</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.009483952115142682</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.00470182886608674</v>
+        <v>0.004719709935001228</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01695740308424813</v>
+        <v>0.01664736418188976</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>26</v>
@@ -4009,19 +4009,19 @@
         <v>25239</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>16852</v>
+        <v>16602</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>36077</v>
+        <v>35530</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01480988457494396</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.009888620961759449</v>
+        <v>0.009741673960506196</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.02116960569378013</v>
+        <v>0.02084898111166362</v>
       </c>
     </row>
     <row r="54">
@@ -4038,19 +4038,19 @@
         <v>29317</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>20040</v>
+        <v>19449</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>43841</v>
+        <v>43230</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.04470294321960423</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.03055833424119112</v>
+        <v>0.02965643157008722</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.06685007321882756</v>
+        <v>0.06591788072560775</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>27</v>
@@ -4059,19 +4059,19 @@
         <v>29390</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>20563</v>
+        <v>18782</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>43101</v>
+        <v>42541</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.02803357608954066</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01961472738437193</v>
+        <v>0.01791569032327071</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.04111199274630005</v>
+        <v>0.0405786095821051</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>54</v>
@@ -4080,19 +4080,19 @@
         <v>58706</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>43668</v>
+        <v>46153</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>76015</v>
+        <v>75897</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.03444834944410292</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.02562427833536458</v>
+        <v>0.02708237143815595</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.04460489506928217</v>
+        <v>0.0445360340455689</v>
       </c>
     </row>
     <row r="55">
@@ -4109,19 +4109,19 @@
         <v>17157</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>10296</v>
+        <v>11033</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>26837</v>
+        <v>27769</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02616104975674262</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.0156999504656786</v>
+        <v>0.01682366633487204</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.04092195906006568</v>
+        <v>0.04234319513103865</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>24</v>
@@ -4130,19 +4130,19 @@
         <v>25756</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>17066</v>
+        <v>17664</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>38129</v>
+        <v>38386</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.02456769482075709</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.016279046732432</v>
+        <v>0.01684874432611952</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03637023898634975</v>
+        <v>0.03661470292531629</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>42</v>
@@ -4151,19 +4151,19 @@
         <v>42913</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>31089</v>
+        <v>31506</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>57769</v>
+        <v>58851</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02518085611884179</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01824289222176927</v>
+        <v>0.01848768863886615</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03389824998157272</v>
+        <v>0.03453307454121545</v>
       </c>
     </row>
     <row r="56">
@@ -4180,19 +4180,19 @@
         <v>594040</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.9058121390494086</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>961</v>
@@ -4201,19 +4201,19 @@
         <v>983282</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.9379147769745596</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1558</v>
@@ -4222,19 +4222,19 @@
         <v>1577321</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.9255609098621114</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
     </row>
     <row r="57">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4726</v>
+        <v>4172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01591624954145416</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07650959341984954</v>
+        <v>0.06754446791942588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5259</v>
+        <v>5871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00628045081703143</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03360118917675086</v>
+        <v>0.03750708646038744</v>
       </c>
     </row>
     <row r="6">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5190</v>
+        <v>5798</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01096955740686569</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05476958421884825</v>
+        <v>0.06118083924521289</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5944</v>
+        <v>6106</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006641039837510688</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03797277600903587</v>
+        <v>0.03900743861765939</v>
       </c>
     </row>
     <row r="7">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4873</v>
+        <v>4462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01542177037611147</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07890002434146197</v>
+        <v>0.07224543129698362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5412</v>
+        <v>5000</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01037431033040063</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0571150109939622</v>
+        <v>0.05276459106946861</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6080</v>
+        <v>6041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01236600595476578</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03884432997574622</v>
+        <v>0.03859225411731795</v>
       </c>
     </row>
     <row r="8">
@@ -4814,7 +4814,7 @@
         <v>59828</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55612</v>
+        <v>55993</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>61764</v>
@@ -4823,7 +4823,7 @@
         <v>0.9686619800824343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9003947147746812</v>
+        <v>0.9065629826964847</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>92739</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>87851</v>
+        <v>88407</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>94762</v>
@@ -4844,7 +4844,7 @@
         <v>0.9786561322627337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9270658176864116</v>
+        <v>0.9329401720506969</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4856,19 +4856,19 @@
         <v>152568</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>146437</v>
+        <v>146776</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>155534</v>
+        <v>155542</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.974712503390692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9355452048934123</v>
+        <v>0.9377103361084878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9936635980542468</v>
+        <v>0.9937127358394274</v>
       </c>
     </row>
     <row r="9">
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4441</v>
+        <v>4954</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009129448043659925</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04281497964094991</v>
+        <v>0.04775884631551468</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5044</v>
+        <v>5403</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003654037699962178</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01946480096770821</v>
+        <v>0.02084936061942427</v>
       </c>
     </row>
     <row r="12">
@@ -5083,19 +5083,19 @@
         <v>3058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>952</v>
+        <v>969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9227</v>
+        <v>9054</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01967530835515115</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006123322468135382</v>
+        <v>0.006233173964337449</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05936701055623438</v>
+        <v>0.05825727734910346</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -5107,16 +5107,16 @@
         <v>950</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8937</v>
+        <v>8229</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01180031764987722</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003664743646250121</v>
+        <v>0.003664826729126965</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03448740398538334</v>
+        <v>0.03175371614331631</v>
       </c>
     </row>
     <row r="13">
@@ -5133,19 +5133,19 @@
         <v>8153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3227</v>
+        <v>3031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16823</v>
+        <v>17798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07860216670018942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03111621601922107</v>
+        <v>0.02922461073201744</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1621938780750709</v>
+        <v>0.1715972727321884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5154,19 +5154,19 @@
         <v>4183</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1039</v>
+        <v>1060</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9418</v>
+        <v>10537</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02691564552000274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006681922251155364</v>
+        <v>0.006818749007333713</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06059600442574813</v>
+        <v>0.06779756638253474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -5175,19 +5175,19 @@
         <v>12336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6078</v>
+        <v>6267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23501</v>
+        <v>22584</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04760304042811609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02345433386185487</v>
+        <v>0.02418324832931841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09068602508554759</v>
+        <v>0.08715011785477764</v>
       </c>
     </row>
     <row r="14">
@@ -5204,19 +5204,19 @@
         <v>94621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86143</v>
+        <v>85629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99724</v>
+        <v>99875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9122683852561506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8305248986752647</v>
+        <v>0.825574832599502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9614617508597413</v>
+        <v>0.9629202772865888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -5225,19 +5225,19 @@
         <v>148181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140932</v>
+        <v>140385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152318</v>
+        <v>152283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9534090461248461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9067714409249303</v>
+        <v>0.9032512399412103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9800267203155427</v>
+        <v>0.9798020698712179</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -5246,19 +5246,19 @@
         <v>242802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>232469</v>
+        <v>231806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249991</v>
+        <v>249051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9369426042220446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8970674704442926</v>
+        <v>0.8945107931823663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9646835279434197</v>
+        <v>0.9610573466304579</v>
       </c>
     </row>
     <row r="15">
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4654</v>
+        <v>4721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01141321641650979</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05797579340772213</v>
+        <v>0.05881438862469895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4619</v>
+        <v>4604</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004175546394194213</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02105271593468056</v>
+        <v>0.02098541816450606</v>
       </c>
     </row>
     <row r="17">
@@ -5460,19 +5460,19 @@
         <v>3817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9096</v>
+        <v>9420</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04755073322890412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01178485061294676</v>
+        <v>0.01175997207753112</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1133204805334427</v>
+        <v>0.1173497194155143</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4955</v>
+        <v>4951</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007086290667477456</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03561483852064395</v>
+        <v>0.03558175698220058</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -5502,19 +5502,19 @@
         <v>4803</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1870</v>
+        <v>1826</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10433</v>
+        <v>10442</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02189028202840821</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008524953759701559</v>
+        <v>0.008320585146297323</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04754958119530077</v>
+        <v>0.04759305518176367</v>
       </c>
     </row>
     <row r="19">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13494</v>
+        <v>13165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02594975632865457</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09698500708751115</v>
+        <v>0.09462064530171627</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12548</v>
+        <v>12404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01645598984652671</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05718919359978537</v>
+        <v>0.05653509190757283</v>
       </c>
     </row>
     <row r="20">
@@ -5594,7 +5594,7 @@
         <v>75536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69934</v>
+        <v>69631</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>78417</v>
@@ -5603,10 +5603,10 @@
         <v>0.941036050354586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8712410076728171</v>
+        <v>0.8674647086257133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9769282750377986</v>
+        <v>0.9769269860440846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>128</v>
@@ -5615,7 +5615,7 @@
         <v>134539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>124908</v>
+        <v>125732</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>138140</v>
@@ -5624,10 +5624,10 @@
         <v>0.9669639530038679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8977435785422704</v>
+        <v>0.9036721285323573</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9928471629130554</v>
+        <v>0.9928507361355636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>200</v>
@@ -5636,19 +5636,19 @@
         <v>210075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201024</v>
+        <v>200784</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>214853</v>
+        <v>214817</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9574781817308708</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9162281245421821</v>
+        <v>0.9151316400376448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9792589701633541</v>
+        <v>0.9790915161154741</v>
       </c>
     </row>
     <row r="21">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5202</v>
+        <v>4042</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008719200081031404</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04744128396074593</v>
+        <v>0.03686292539009862</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5395</v>
+        <v>3898</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005324504811779525</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03004376072082973</v>
+        <v>0.02170788188218164</v>
       </c>
     </row>
     <row r="24">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4647</v>
+        <v>3766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008246228195379535</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04237828306159684</v>
+        <v>0.03434823236976051</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4736</v>
+        <v>4519</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005035677733884105</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02637694908500124</v>
+        <v>0.02516817685247763</v>
       </c>
     </row>
     <row r="25">
@@ -5913,19 +5913,19 @@
         <v>7579</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2255</v>
+        <v>2951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15603</v>
+        <v>16409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1084144474878503</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03225419969179368</v>
+        <v>0.04221042266497267</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2231809849058498</v>
+        <v>0.234708150817358</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6663</v>
+        <v>6540</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01743840016206281</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06076623544487014</v>
+        <v>0.05964598899695145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -5955,19 +5955,19 @@
         <v>9492</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4053</v>
+        <v>4239</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18190</v>
+        <v>19421</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05285861699410428</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02257173922160517</v>
+        <v>0.02360835524550853</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1012979768834659</v>
+        <v>0.108156040202061</v>
       </c>
     </row>
     <row r="26">
@@ -5984,19 +5984,19 @@
         <v>62332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54308</v>
+        <v>53502</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67656</v>
+        <v>66960</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8915855525121497</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7768190150941504</v>
+        <v>0.7652918491826425</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9677458003082063</v>
+        <v>0.9577895773350273</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -6005,19 +6005,19 @@
         <v>105881</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101169</v>
+        <v>101064</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>108706</v>
+        <v>108692</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9655961715615262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9226182674872974</v>
+        <v>0.9216636753464689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9913522055869547</v>
+        <v>0.9912284046746952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>159</v>
@@ -6026,19 +6026,19 @@
         <v>168213</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>159453</v>
+        <v>157505</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>174319</v>
+        <v>173761</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9367812004602321</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8879973142668309</v>
+        <v>0.8771474407879264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9707849869037961</v>
+        <v>0.9676761371384613</v>
       </c>
     </row>
     <row r="27">
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7811</v>
+        <v>7285</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04495718829236738</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.150235878816766</v>
+        <v>0.140115135143388</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7824</v>
+        <v>8093</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01634196838962525</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05470035623017131</v>
+        <v>0.05658154695757298</v>
       </c>
     </row>
     <row r="30">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6838</v>
+        <v>6394</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03992532017267198</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1315284622343059</v>
+        <v>0.1229740148220479</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -6261,19 +6261,19 @@
         <v>2989</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7959</v>
+        <v>7308</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03282682237038405</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01075898814617467</v>
+        <v>0.01073816211597817</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08742401010102706</v>
+        <v>0.08026767122639519</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -6282,19 +6282,19 @@
         <v>5064</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10272</v>
+        <v>11135</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03540713112867239</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01391453076976911</v>
+        <v>0.0139697539882504</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0718141003840769</v>
+        <v>0.07784758156089329</v>
       </c>
     </row>
     <row r="31">
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5709</v>
+        <v>4486</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02020679476718107</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1098142301941787</v>
+        <v>0.08628296405511697</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -6332,19 +6332,19 @@
         <v>2964</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8390</v>
+        <v>8142</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03255214087793298</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00981192076519938</v>
+        <v>0.009772599725186565</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09215185417766052</v>
+        <v>0.08943370295795892</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -6353,19 +6353,19 @@
         <v>4014</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10904</v>
+        <v>10017</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02806459920631242</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006779786715353474</v>
+        <v>0.006913658368735288</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07623207745597699</v>
+        <v>0.07003533878783376</v>
       </c>
     </row>
     <row r="32">
@@ -6382,19 +6382,19 @@
         <v>46528</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39634</v>
+        <v>40526</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49958</v>
+        <v>50088</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8949106967677796</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7623158464318825</v>
+        <v>0.7794657704077408</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9608741791526451</v>
+        <v>0.963378153266072</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>83</v>
@@ -6403,19 +6403,19 @@
         <v>85088</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>78863</v>
+        <v>79316</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>88280</v>
+        <v>88935</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.934621036751683</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8662449412648646</v>
+        <v>0.8712268428657018</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9696795554470506</v>
+        <v>0.9768759529087067</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>126</v>
@@ -6424,19 +6424,19 @@
         <v>131616</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>123865</v>
+        <v>123862</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>137129</v>
+        <v>137158</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9201863012753899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8659944085994571</v>
+        <v>0.8659717221175678</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9587284893993538</v>
+        <v>0.9589354485309658</v>
       </c>
     </row>
     <row r="33">
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6785</v>
+        <v>6317</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01160790455373483</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04062426577584678</v>
+        <v>0.0378214980873774</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6530</v>
+        <v>5955</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004993765339956952</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01681873949184942</v>
+        <v>0.01533857336281412</v>
       </c>
     </row>
     <row r="42">
@@ -6948,19 +6948,19 @@
         <v>6801</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2852</v>
+        <v>2942</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13139</v>
+        <v>14367</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04071566310936397</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01707543138639334</v>
+        <v>0.017612867564644</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07866603208448276</v>
+        <v>0.08601872999340886</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -6969,19 +6969,19 @@
         <v>8111</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4028</v>
+        <v>3809</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15638</v>
+        <v>15143</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03666371305265345</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01820726803126707</v>
+        <v>0.01721781014580739</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07069057071057482</v>
+        <v>0.06845263196773928</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>15</v>
@@ -6990,19 +6990,19 @@
         <v>14912</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>8678</v>
+        <v>8774</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>24069</v>
+        <v>24432</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03840687760563275</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0223517972446079</v>
+        <v>0.02259815023264529</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06199427365136043</v>
+        <v>0.06292755502989535</v>
       </c>
     </row>
     <row r="43">
@@ -7019,19 +7019,19 @@
         <v>4879</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10834</v>
+        <v>10011</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02920883703441092</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01133421986502856</v>
+        <v>0.01134565407586008</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06486203765103907</v>
+        <v>0.05993450301543628</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>5</v>
@@ -7040,19 +7040,19 @@
         <v>6658</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2099</v>
+        <v>2033</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>15867</v>
+        <v>15165</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03009698244746045</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.009490000497291082</v>
+        <v>0.009187835742743792</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07172464932282253</v>
+        <v>0.06855210488503992</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>10</v>
@@ -7061,19 +7061,19 @@
         <v>11537</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>5946</v>
+        <v>5520</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>22180</v>
+        <v>21332</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02971489886295153</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01531485624137126</v>
+        <v>0.01421868132561574</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05712802903690955</v>
+        <v>0.0549424455691606</v>
       </c>
     </row>
     <row r="44">
@@ -7090,19 +7090,19 @@
         <v>153409</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>145136</v>
+        <v>145531</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>159080</v>
+        <v>159346</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9184675953024902</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8689391823599548</v>
+        <v>0.871301693625498</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9524187646289035</v>
+        <v>0.9540134811709532</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>188</v>
@@ -7111,19 +7111,19 @@
         <v>206455</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>196213</v>
+        <v>197137</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>212614</v>
+        <v>213110</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9332393044998861</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.886942579350691</v>
+        <v>0.8911214792625173</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9610810797599023</v>
+        <v>0.9633235121237661</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>328</v>
@@ -7132,19 +7132,19 @@
         <v>359865</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>347202</v>
+        <v>348114</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>368534</v>
+        <v>369593</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9268844581914588</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8942686404511334</v>
+        <v>0.8966185429762654</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9492128143315266</v>
+        <v>0.9519420237118625</v>
       </c>
     </row>
     <row r="45">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4165</v>
+        <v>4079</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.006350037262889205</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02679388527135216</v>
+        <v>0.02624203037194369</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9292</v>
+        <v>8668</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.008056626442052144</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04220423587203459</v>
+        <v>0.03936816929179617</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>10715</v>
+        <v>11124</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.007350334514266084</v>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02852480769898362</v>
+        <v>0.02961452879417101</v>
       </c>
     </row>
     <row r="48">
@@ -7354,19 +7354,19 @@
         <v>6443</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2110</v>
+        <v>2135</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>15176</v>
+        <v>15132</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04144522262942956</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01357527821000381</v>
+        <v>0.01373635106415255</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.09761926299747832</v>
+        <v>0.09733790553154671</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>6336</v>
+        <v>7177</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.009560389815024179</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0287796063092946</v>
+        <v>0.03259740837378277</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>7</v>
@@ -7396,19 +7396,19 @@
         <v>8548</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3227</v>
+        <v>3272</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>17998</v>
+        <v>17991</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02275630146768589</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.008591266231814885</v>
+        <v>0.008711351324037338</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.0479140346931147</v>
+        <v>0.04789696249484662</v>
       </c>
     </row>
     <row r="49">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>6516</v>
+        <v>6691</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01205498363506178</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.0419174109542268</v>
+        <v>0.04304170471080135</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>4</v>
@@ -7446,19 +7446,19 @@
         <v>4120</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>984</v>
+        <v>1075</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>9401</v>
+        <v>9403</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01871084717740898</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.004471290632545018</v>
+        <v>0.004881054417162883</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04269903380279603</v>
+        <v>0.04270968079218262</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>6</v>
@@ -7467,19 +7467,19 @@
         <v>5994</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2135</v>
+        <v>2231</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>12858</v>
+        <v>12954</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01595624006410762</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.005684730024758943</v>
+        <v>0.005939286957516536</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03423199870488772</v>
+        <v>0.03448664777768281</v>
       </c>
     </row>
     <row r="50">
@@ -7496,19 +7496,19 @@
         <v>146152</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>136997</v>
+        <v>136733</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>151363</v>
+        <v>151321</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9401497564726194</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8812597615206638</v>
+        <v>0.8795610677613622</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9736701431466633</v>
+        <v>0.9733998556866669</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>196</v>
@@ -7517,19 +7517,19 @@
         <v>212170</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>203773</v>
+        <v>204740</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>216977</v>
+        <v>216404</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9636721365655146</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9255358040747106</v>
+        <v>0.9299274729296304</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9855048723134324</v>
+        <v>0.9829061043731656</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>327</v>
@@ -7538,19 +7538,19 @@
         <v>358322</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>346771</v>
+        <v>345954</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>365306</v>
+        <v>365428</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9539371239539404</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9231860161852271</v>
+        <v>0.9210111960790468</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9725317955144769</v>
+        <v>0.9728546746076574</v>
       </c>
     </row>
     <row r="51">
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>4489</v>
+        <v>4607</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.001191564630159715</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.005838401360677301</v>
+        <v>0.005991775508153394</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>4570</v>
+        <v>5351</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.0004808157213087411</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.002398577159057381</v>
+        <v>0.002808285291247997</v>
       </c>
     </row>
     <row r="53">
@@ -7705,19 +7705,19 @@
         <v>7193</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2854</v>
+        <v>2904</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>14746</v>
+        <v>14681</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.009356061432493672</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.003711850492762735</v>
+        <v>0.003777359297546177</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01917961150157693</v>
+        <v>0.01909503275762039</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>11139</v>
+        <v>10927</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.002401978579087664</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009801225273559712</v>
+        <v>0.00961420095694278</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>9</v>
@@ -7747,19 +7747,19 @@
         <v>9923</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>4711</v>
+        <v>4935</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>19256</v>
+        <v>19039</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.00520806419003181</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.002472623321473071</v>
+        <v>0.00259006015067893</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01010594563882224</v>
+        <v>0.009992375320080325</v>
       </c>
     </row>
     <row r="54">
@@ -7776,19 +7776,19 @@
         <v>19136</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>11339</v>
+        <v>11836</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>28625</v>
+        <v>29965</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02488949254916242</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.0147479029554216</v>
+        <v>0.01539457339645371</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03723052551841304</v>
+        <v>0.0389743861061488</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>19</v>
@@ -7797,19 +7797,19 @@
         <v>19192</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>11805</v>
+        <v>12136</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>29140</v>
+        <v>28762</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01688658501357107</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01038715786325321</v>
+        <v>0.01067809581721856</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02563953669211558</v>
+        <v>0.02530690664510389</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>37</v>
@@ -7818,19 +7818,19 @@
         <v>38328</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>27490</v>
+        <v>26912</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>52549</v>
+        <v>51458</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.02011588845368472</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0144278305688505</v>
+        <v>0.01412448353433677</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02757933156088027</v>
+        <v>0.02700683787906033</v>
       </c>
     </row>
     <row r="55">
@@ -7847,19 +7847,19 @@
         <v>24488</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>15088</v>
+        <v>15513</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>38087</v>
+        <v>37090</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.03185009008627159</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01962480887767929</v>
+        <v>0.02017634158646506</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.04953773448004373</v>
+        <v>0.04824116606633394</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>21</v>
@@ -7868,19 +7868,19 @@
         <v>24430</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>15266</v>
+        <v>14812</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>36956</v>
+        <v>38492</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.0214956668140436</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.01343199304223296</v>
+        <v>0.01303308988489521</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03251653787380443</v>
+        <v>0.03386861406639628</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>42</v>
@@ -7889,19 +7889,19 @@
         <v>48918</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>35317</v>
+        <v>35967</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>65687</v>
+        <v>67585</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02567384512545001</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01853553787007663</v>
+        <v>0.01887639650144667</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03447450260733684</v>
+        <v>0.03547064111416334</v>
       </c>
     </row>
     <row r="56">
@@ -7918,19 +7918,19 @@
         <v>717114</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>699917</v>
+        <v>698933</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>729680</v>
+        <v>730092</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.9327127913019126</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.910344554450699</v>
+        <v>0.9090654613891606</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9490563876502506</v>
+        <v>0.949592140563198</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1016</v>
@@ -7939,19 +7939,19 @@
         <v>1090170</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1075154</v>
+        <v>1074733</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1102440</v>
+        <v>1102739</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.9592157695932977</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.9460039185220057</v>
+        <v>0.9456333259608901</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.9700121417515931</v>
+        <v>0.9702754502164166</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1675</v>
@@ -7960,19 +7960,19 @@
         <v>1807284</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1783850</v>
+        <v>1786560</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1825310</v>
+        <v>1825703</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.9485213865095248</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.9362223593425698</v>
+        <v>0.937644729713787</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9579819243738011</v>
+        <v>0.9581880812185458</v>
       </c>
     </row>
     <row r="57">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5096</v>
+        <v>5759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01430358571458342</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07413334782101071</v>
+        <v>0.08377929751713609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4564</v>
+        <v>5232</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006053130796182906</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0280959570434965</v>
+        <v>0.03220930556396113</v>
       </c>
     </row>
     <row r="5">
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6085</v>
+        <v>7195</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02885574986430457</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0885154396661274</v>
+        <v>0.1046557738303401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6932</v>
+        <v>6630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02224143837038791</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07397676827315294</v>
+        <v>0.07075709272796095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -8413,19 +8413,19 @@
         <v>4068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1019</v>
+        <v>1061</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10019</v>
+        <v>10251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02504054716718094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00627200928580016</v>
+        <v>0.006533354237437694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06167921410628553</v>
+        <v>0.06310197108125104</v>
       </c>
     </row>
     <row r="6">
@@ -8442,19 +8442,19 @@
         <v>5617</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1576</v>
+        <v>1594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12930</v>
+        <v>13633</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08170295180112992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02292916571715726</v>
+        <v>0.02319440311381072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1880839572436367</v>
+        <v>0.1983053870158938</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -8476,19 +8476,19 @@
         <v>5617</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1564</v>
+        <v>1590</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13562</v>
+        <v>13388</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0345758513672717</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009625842178946551</v>
+        <v>0.009788977734609341</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08348696347154595</v>
+        <v>0.08241575061621383</v>
       </c>
     </row>
     <row r="7">
@@ -8505,19 +8505,19 @@
         <v>7821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3318</v>
+        <v>3223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15498</v>
+        <v>15275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1137620232098734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04826278084978444</v>
+        <v>0.04689019306214574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2254479080650077</v>
+        <v>0.222205030242192</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -8526,19 +8526,19 @@
         <v>4376</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1657</v>
+        <v>1715</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9817</v>
+        <v>9626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04670133054778423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01768482176903797</v>
+        <v>0.01830497062068904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1047717957475917</v>
+        <v>0.1027324178368017</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -8547,19 +8547,19 @@
         <v>12196</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6727</v>
+        <v>6487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20853</v>
+        <v>21159</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07508072799861924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04141116001443195</v>
+        <v>0.03993192368809306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1283703366033047</v>
+        <v>0.1302536603195445</v>
       </c>
     </row>
     <row r="8">
@@ -8576,19 +8576,19 @@
         <v>52341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43884</v>
+        <v>43281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58845</v>
+        <v>58431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7613756894101087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6383543017576156</v>
+        <v>0.6295818662660959</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8559848888899814</v>
+        <v>0.8499665905800998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -8597,19 +8597,19 @@
         <v>87240</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80893</v>
+        <v>81264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90891</v>
+        <v>90909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9310572310818279</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8633226548070023</v>
+        <v>0.867278386421929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9700189341840629</v>
+        <v>0.9702111675533615</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>133</v>
@@ -8618,19 +8618,19 @@
         <v>139581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>128461</v>
+        <v>129896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>147330</v>
+        <v>148037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8592497426707452</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7907989759690656</v>
+        <v>0.7996327406982229</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9069547553030041</v>
+        <v>0.9113033334676239</v>
       </c>
     </row>
     <row r="9">
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5413</v>
+        <v>5014</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00988262750923371</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04937166925118756</v>
+        <v>0.04572467513150577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5383</v>
+        <v>5465</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006059775902740046</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02995878933160331</v>
+        <v>0.0304156127185668</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7580</v>
+        <v>6778</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.007508479659729467</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02619676319493307</v>
+        <v>0.02342589091023806</v>
       </c>
     </row>
     <row r="13">
@@ -8887,19 +8887,19 @@
         <v>3930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10807</v>
+        <v>11139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03584058224695536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00938414461450547</v>
+        <v>0.009329373351695692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09856003665695781</v>
+        <v>0.1015910320466577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -8908,19 +8908,19 @@
         <v>5213</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1948</v>
+        <v>2048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11492</v>
+        <v>11532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0290099934689522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0108383339621</v>
+        <v>0.01139999930099323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06395190881328226</v>
+        <v>0.0641788377159188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -8929,19 +8929,19 @@
         <v>9143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4218</v>
+        <v>4161</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18753</v>
+        <v>17499</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03159850608825817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01457827239684735</v>
+        <v>0.01438250682862878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06481347812077302</v>
+        <v>0.06047910753878092</v>
       </c>
     </row>
     <row r="14">
@@ -8958,19 +8958,19 @@
         <v>104633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97025</v>
+        <v>97072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108528</v>
+        <v>107756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.954276790243811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8848889521093259</v>
+        <v>0.8853215571847877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989802455800501</v>
+        <v>0.9827629934759824</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -8979,19 +8979,19 @@
         <v>173388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167278</v>
+        <v>167200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177558</v>
+        <v>177511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9649302306283077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9309279086875875</v>
+        <v>0.930491776428248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9881331687208612</v>
+        <v>0.987872454928865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -9000,19 +9000,19 @@
         <v>278021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>268585</v>
+        <v>269587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283341</v>
+        <v>283245</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9608930142520123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9282792135980855</v>
+        <v>0.9317430001668187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9792803104176262</v>
+        <v>0.9789497774610125</v>
       </c>
     </row>
     <row r="15">
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5631</v>
+        <v>4663</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01271522661978254</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07762929519170204</v>
+        <v>0.06429056017333348</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5179</v>
+        <v>4538</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008627747605896031</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05052109305234315</v>
+        <v>0.04427028191293712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5529</v>
+        <v>6213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0103214768350675</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03158671152040176</v>
+        <v>0.0354927069962456</v>
       </c>
     </row>
     <row r="18">
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4323</v>
+        <v>4283</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01192772577706669</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05960429209805911</v>
+        <v>0.05904519057579925</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6955</v>
+        <v>7898</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01883879596658732</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06784852500108673</v>
+        <v>0.077048898931286</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -9267,16 +9267,16 @@
         <v>857</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7591</v>
+        <v>7328</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01597505488190424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004894126952883675</v>
+        <v>0.004893827712615115</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04336653829556711</v>
+        <v>0.04186780124810072</v>
       </c>
     </row>
     <row r="19">
@@ -9293,19 +9293,19 @@
         <v>5360</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10474</v>
+        <v>10362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07389959381295873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02743546245073238</v>
+        <v>0.0273779287755509</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1444077209277581</v>
+        <v>0.1428697239830529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -9314,19 +9314,19 @@
         <v>2977</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8084</v>
+        <v>8015</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02904318933136027</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008805799246164635</v>
+        <v>0.008824003361429111</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07886577537011467</v>
+        <v>0.07819053081076131</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -9335,19 +9335,19 @@
         <v>8337</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4068</v>
+        <v>4361</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15234</v>
+        <v>15412</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04763034369421097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02324319327459978</v>
+        <v>0.0249128982416406</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08702959537751868</v>
+        <v>0.08804767550686686</v>
       </c>
     </row>
     <row r="20">
@@ -9364,19 +9364,19 @@
         <v>65384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59608</v>
+        <v>59925</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69020</v>
+        <v>68902</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.901457453790192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8218303948114604</v>
+        <v>0.8261955053881798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9515885339875819</v>
+        <v>0.9499640714310251</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -9385,19 +9385,19 @@
         <v>96715</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91094</v>
+        <v>90363</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100532</v>
+        <v>100506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9434902670961564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8886510537281582</v>
+        <v>0.881518845443143</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9807232296878696</v>
+        <v>0.980469558811449</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>165</v>
@@ -9406,19 +9406,19 @@
         <v>162099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154286</v>
+        <v>154025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167409</v>
+        <v>167520</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9260731245888173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8814403856796977</v>
+        <v>0.8799487417039181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9564105336493155</v>
+        <v>0.957043843292626</v>
       </c>
     </row>
     <row r="21">
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4391</v>
+        <v>5591</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01091048438682524</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05014667538550747</v>
+        <v>0.06384305922599497</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3635</v>
+        <v>4424</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006565570601393179</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02708893832029832</v>
+        <v>0.03296704992948664</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5581</v>
+        <v>5908</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008281365004692886</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02516889913583984</v>
+        <v>0.02664335718364531</v>
       </c>
     </row>
     <row r="24">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8111</v>
+        <v>8267</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01889471609463117</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09262264685076076</v>
+        <v>0.09440634869982648</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -9649,19 +9649,19 @@
         <v>3903</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10360</v>
+        <v>10619</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02908687493177576</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006523931402128043</v>
+        <v>0.006526112606513574</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07720997874909341</v>
+        <v>0.07914092690165928</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -9670,19 +9670,19 @@
         <v>5558</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1518</v>
+        <v>1557</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13129</v>
+        <v>14363</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02506201967482033</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006845601509042749</v>
+        <v>0.007023033490756597</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05920646845338731</v>
+        <v>0.0647687017818902</v>
       </c>
     </row>
     <row r="25">
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6978</v>
+        <v>6848</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02233334802437711</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07968441358637238</v>
+        <v>0.07819752657071033</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -9720,19 +9720,19 @@
         <v>9120</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3714</v>
+        <v>4252</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17384</v>
+        <v>18310</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06796308398120136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02767814603250707</v>
+        <v>0.0316881168438241</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1295516372182388</v>
+        <v>0.1364509320741646</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -9741,19 +9741,19 @@
         <v>11075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5575</v>
+        <v>5602</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20346</v>
+        <v>19663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04994402780538886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02514002948020794</v>
+        <v>0.02526059312197217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09175155829924789</v>
+        <v>0.08866813656718897</v>
       </c>
     </row>
     <row r="26">
@@ -9770,19 +9770,19 @@
         <v>83004</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76292</v>
+        <v>76028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>86599</v>
+        <v>85910</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9478614514941665</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8712153581028184</v>
+        <v>0.8681958343510001</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9889100065043073</v>
+        <v>0.9810402808171308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>111</v>
@@ -9791,19 +9791,19 @@
         <v>120280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110761</v>
+        <v>110123</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>126933</v>
+        <v>126729</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8963844704856296</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8254403307752045</v>
+        <v>0.8206856933548183</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9459627167837222</v>
+        <v>0.9444387258181045</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>193</v>
@@ -9812,19 +9812,19 @@
         <v>203286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>192209</v>
+        <v>192829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>211468</v>
+        <v>210819</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9167125875150979</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8667630120645804</v>
+        <v>0.8695592356088924</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9536110876776777</v>
+        <v>0.9506835100058343</v>
       </c>
     </row>
     <row r="27">
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4966</v>
+        <v>4558</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03244436507881404</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1702084494817817</v>
+        <v>0.1562230794058251</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4746</v>
+        <v>4818</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01184808681054192</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05940549748386222</v>
+        <v>0.06029901795630459</v>
       </c>
     </row>
     <row r="30">
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5452</v>
+        <v>5995</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02075261983203589</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1074844512382889</v>
+        <v>0.1181902135912942</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4720</v>
+        <v>5277</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01317414385573478</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05907347822981028</v>
+        <v>0.06604334966340704</v>
       </c>
     </row>
     <row r="31">
@@ -10089,19 +10089,19 @@
         <v>3676</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9830</v>
+        <v>10241</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1259914929807436</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0338436412225567</v>
+        <v>0.03332536921853322</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3369221229819443</v>
+        <v>0.3510005674542941</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4032</v>
+        <v>5285</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01748536185259233</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07949875235877873</v>
+        <v>0.104206091280786</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -10131,19 +10131,19 @@
         <v>4563</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1009</v>
+        <v>1738</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11072</v>
+        <v>11325</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05710980997969909</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01262745087086897</v>
+        <v>0.02175361718893115</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1385846919950044</v>
+        <v>0.1417508183373224</v>
       </c>
     </row>
     <row r="32">
@@ -10160,19 +10160,19 @@
         <v>24554</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18200</v>
+        <v>18504</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27407</v>
+        <v>28108</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8415641419404424</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6237696131471843</v>
+        <v>0.6342099439661203</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9393380625648016</v>
+        <v>0.9633638972704122</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -10181,7 +10181,7 @@
         <v>48781</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44742</v>
+        <v>43708</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>50720</v>
@@ -10190,7 +10190,7 @@
         <v>0.9617620183153718</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8821394860110703</v>
+        <v>0.8617490190463362</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -10202,19 +10202,19 @@
         <v>73334</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66155</v>
+        <v>65440</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77225</v>
+        <v>77057</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9178679593540242</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8280198195297258</v>
+        <v>0.8190598162512063</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9665636058302053</v>
+        <v>0.964467006689091</v>
       </c>
     </row>
     <row r="33">
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4776</v>
+        <v>3828</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007651532811899137</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0388303020472633</v>
+        <v>0.03111982639084272</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4764</v>
+        <v>4806</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00412713164064998</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02089257621258195</v>
+        <v>0.02107621288005762</v>
       </c>
     </row>
     <row r="37">
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7124</v>
+        <v>6801</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01940507239250683</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0678179643509603</v>
+        <v>0.0647450388026119</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -10484,19 +10484,19 @@
         <v>2878</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8566</v>
+        <v>8689</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02339897448288177</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.007505834496626013</v>
+        <v>0.007520408873111564</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06964082282832375</v>
+        <v>0.07064064875081988</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -10505,19 +10505,19 @@
         <v>4917</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1859</v>
+        <v>1939</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10763</v>
+        <v>10856</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02155932829025463</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.008151139477876322</v>
+        <v>0.008502609240504451</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0471962812036027</v>
+        <v>0.04760293247176928</v>
       </c>
     </row>
     <row r="38">
@@ -10534,7 +10534,7 @@
         <v>103003</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>97917</v>
+        <v>98240</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>105041</v>
@@ -10543,7 +10543,7 @@
         <v>0.9805949276074931</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9321820356490398</v>
+        <v>0.9352549611973825</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -10555,19 +10555,19 @@
         <v>119186</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>113142</v>
+        <v>113353</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>122003</v>
+        <v>122062</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9689494927052191</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9198178195577713</v>
+        <v>0.9215288787875455</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9918520309438195</v>
+        <v>0.9923341051503229</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>213</v>
@@ -10576,19 +10576,19 @@
         <v>222189</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>216097</v>
+        <v>215261</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>226045</v>
+        <v>225206</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9743135400690954</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9475964323050284</v>
+        <v>0.9439314836119498</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9912215322234571</v>
+        <v>0.9875406086787339</v>
       </c>
     </row>
     <row r="39">
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5245</v>
+        <v>5665</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00703453859844715</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03496062384729816</v>
+        <v>0.037761768877676</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5271</v>
+        <v>4292</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00314641820571265</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01571375602117072</v>
+        <v>0.01279650596816953</v>
       </c>
     </row>
     <row r="42">
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7372</v>
+        <v>6183</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01342046224428529</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04913979222328187</v>
+        <v>0.04121038314054139</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -10811,19 +10811,19 @@
         <v>3373</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9122</v>
+        <v>9130</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01819320982962729</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.00583589042516287</v>
+        <v>0.005774782102032229</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04920343020022552</v>
+        <v>0.04924862412003186</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5</v>
@@ -10832,19 +10832,19 @@
         <v>5386</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2044</v>
+        <v>1993</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>12937</v>
+        <v>11679</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01605844865323598</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006093828490523303</v>
+        <v>0.005942940479814601</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03856815785908252</v>
+        <v>0.03481830357831896</v>
       </c>
     </row>
     <row r="43">
@@ -10861,19 +10861,19 @@
         <v>6589</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2617</v>
+        <v>2698</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14755</v>
+        <v>15733</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04392036425777474</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01744046596200966</v>
+        <v>0.01798337997629865</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09834544664620497</v>
+        <v>0.1048702192387992</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>6</v>
@@ -10882,19 +10882,19 @@
         <v>6129</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2313</v>
+        <v>2241</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>12479</v>
+        <v>12726</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03306148498022871</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.012477140333146</v>
+        <v>0.01208846794858822</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06730933390649586</v>
+        <v>0.06864470642415793</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>11</v>
@@ -10903,19 +10903,19 @@
         <v>12719</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>6705</v>
+        <v>6887</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>21239</v>
+        <v>23105</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03791845960256553</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01998852970132893</v>
+        <v>0.0205317181797639</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06332096708530903</v>
+        <v>0.06888252435866156</v>
       </c>
     </row>
     <row r="44">
@@ -10932,19 +10932,19 @@
         <v>140370</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>131924</v>
+        <v>131510</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>145306</v>
+        <v>145517</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9356246348994928</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8793262101845634</v>
+        <v>0.8765705793495804</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9685276213390454</v>
+        <v>0.9699323571833953</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>159</v>
@@ -10953,19 +10953,19 @@
         <v>175892</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>168082</v>
+        <v>168514</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>180419</v>
+        <v>180712</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.948745305190144</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9066180929599031</v>
+        <v>0.9089500816631758</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9731639006753432</v>
+        <v>0.9747432667361118</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>284</v>
@@ -10974,19 +10974,19 @@
         <v>316262</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>307297</v>
+        <v>305935</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>324216</v>
+        <v>324194</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9428766735384858</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9161491083010348</v>
+        <v>0.9120904593231326</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9665924376179136</v>
+        <v>0.9665255392452053</v>
       </c>
     </row>
     <row r="45">
@@ -11125,19 +11125,19 @@
         <v>5013</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1898</v>
+        <v>1908</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11273</v>
+        <v>11255</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02267663942618434</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.008584986954646013</v>
+        <v>0.00862889491570696</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05099337630128537</v>
+        <v>0.05091017962830545</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>4716</v>
+        <v>4742</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.003439367254304869</v>
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01725686093798521</v>
+        <v>0.01735365931574917</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -11167,19 +11167,19 @@
         <v>5953</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2030</v>
+        <v>1982</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>12337</v>
+        <v>11853</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01204251533451933</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.004106656550787249</v>
+        <v>0.004009070454518495</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02495575083500759</v>
+        <v>0.0239770287247588</v>
       </c>
     </row>
     <row r="48">
@@ -11196,19 +11196,19 @@
         <v>4967</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11044</v>
+        <v>11769</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02246947153097749</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.008847515115491008</v>
+        <v>0.008805020551558528</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04995456783529319</v>
+        <v>0.05323601314485264</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>6</v>
@@ -11217,19 +11217,19 @@
         <v>6884</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2855</v>
+        <v>2901</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>14709</v>
+        <v>15994</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.0251923111910399</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.0104478821061198</v>
+        <v>0.01061726421526928</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05382533775073198</v>
+        <v>0.05853010885502558</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>11</v>
@@ -11238,19 +11238,19 @@
         <v>11852</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>6017</v>
+        <v>5999</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>21352</v>
+        <v>20422</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02397462333046892</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01217103874107753</v>
+        <v>0.01213476039457227</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04319376854489715</v>
+        <v>0.04131104340439356</v>
       </c>
     </row>
     <row r="49">
@@ -11267,19 +11267,19 @@
         <v>13968</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>7647</v>
+        <v>7631</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>23334</v>
+        <v>23307</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.06318175122037396</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.03458914774453233</v>
+        <v>0.03451907096644408</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1055476905379916</v>
+        <v>0.105423912435356</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>12</v>
@@ -11288,19 +11288,19 @@
         <v>14634</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7108</v>
+        <v>7756</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>23437</v>
+        <v>24829</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.05355302501449244</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02601261425594322</v>
+        <v>0.02838394391433383</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08576770659414407</v>
+        <v>0.09085889684646967</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>25</v>
@@ -11309,19 +11309,19 @@
         <v>28602</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>19082</v>
+        <v>19389</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>40581</v>
+        <v>42288</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.05785911148210138</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03860194912035492</v>
+        <v>0.03922179248682459</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08209178884166894</v>
+        <v>0.08554457928074188</v>
       </c>
     </row>
     <row r="50">
@@ -11338,19 +11338,19 @@
         <v>197126</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>186476</v>
+        <v>185903</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>205065</v>
+        <v>205004</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8916721378224642</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8434967272182389</v>
+        <v>0.8409059302980892</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9275800925714142</v>
+        <v>0.9273041177497704</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>224</v>
@@ -11359,19 +11359,19 @@
         <v>250807</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>239663</v>
+        <v>239524</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>260197</v>
+        <v>259728</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9178152965401628</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8770348125051187</v>
+        <v>0.8765275330812468</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9521784039277454</v>
+        <v>0.9504625536783553</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>412</v>
@@ -11380,19 +11380,19 @@
         <v>447933</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>433610</v>
+        <v>432722</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>459942</v>
+        <v>460099</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9061237498529103</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8771490565271555</v>
+        <v>0.8753524261009619</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9304163620567113</v>
+        <v>0.9307343922973468</v>
       </c>
     </row>
     <row r="51">
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>6237</v>
+        <v>5827</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.001165303473275647</v>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.007391312547758788</v>
+        <v>0.006905737706233199</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>5589</v>
+        <v>5935</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.0004950457306663809</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.002813645692153308</v>
+        <v>0.002987815929279423</v>
       </c>
     </row>
     <row r="53">
@@ -11547,19 +11547,19 @@
         <v>10877</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>5636</v>
+        <v>5928</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>18951</v>
+        <v>18936</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01288981214973531</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.006679107213114973</v>
+        <v>0.007025757015749682</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02245837711519329</v>
+        <v>0.02244117776055221</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>5</v>
@@ -11568,19 +11568,19 @@
         <v>4789</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1876</v>
+        <v>1777</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>10723</v>
+        <v>10705</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.004192062173573973</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.001641793550563718</v>
+        <v>0.001555716129999574</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.00938597091544755</v>
+        <v>0.009369926222677327</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>16</v>
@@ -11589,19 +11589,19 @@
         <v>15666</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>9746</v>
+        <v>9595</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>24592</v>
+        <v>24751</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.007887051582640784</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.00490688043773222</v>
+        <v>0.004830642718802377</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01238076616568106</v>
+        <v>0.01246122625170012</v>
       </c>
     </row>
     <row r="54">
@@ -11618,19 +11618,19 @@
         <v>16201</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>9502</v>
+        <v>9371</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>26784</v>
+        <v>27128</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01919960225047254</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01126089503135341</v>
+        <v>0.011105371294906</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03174187085460513</v>
+        <v>0.03214926011943402</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>17</v>
@@ -11639,19 +11639,19 @@
         <v>19174</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>11309</v>
+        <v>11977</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>29892</v>
+        <v>30315</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01678286141191733</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.009898532764880567</v>
+        <v>0.01048366792840422</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02616450356351042</v>
+        <v>0.0265345958805628</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>31</v>
@@ -11660,19 +11660,19 @@
         <v>35375</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>23832</v>
+        <v>24267</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>49233</v>
+        <v>49768</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.0178095443848006</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01199845813921671</v>
+        <v>0.01221741234446538</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02478638978845002</v>
+        <v>0.02505590834024483</v>
       </c>
     </row>
     <row r="55">
@@ -11689,19 +11689,19 @@
         <v>45338</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>32759</v>
+        <v>32934</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>60139</v>
+        <v>61283</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.05372943031032088</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.03882224305012423</v>
+        <v>0.03903029029894895</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.07127057759561663</v>
+        <v>0.0726259783542243</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>42</v>
@@ -11710,19 +11710,19 @@
         <v>46214</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>34090</v>
+        <v>33478</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>60918</v>
+        <v>62621</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.04045115952621661</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.02983895950066228</v>
+        <v>0.0293036072563355</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.05332196460389197</v>
+        <v>0.05481231058923675</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>83</v>
@@ -11731,19 +11731,19 @@
         <v>91552</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>73626</v>
+        <v>72226</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>112535</v>
+        <v>112505</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.04609205171700824</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.03706709292610727</v>
+        <v>0.03636228897447429</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.05665626970210787</v>
+        <v>0.05664130780460873</v>
       </c>
     </row>
     <row r="56">
@@ -11760,19 +11760,19 @@
         <v>770415</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.9130158518161956</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>993</v>
@@ -11781,19 +11781,19 @@
         <v>1072288</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1053179</v>
+        <v>1051991</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1087890</v>
+        <v>1088091</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.9385739168882921</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.9218481908009564</v>
+        <v>0.9208079793804357</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.9522301568357082</v>
+        <v>0.952406354685973</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1730</v>
@@ -11802,19 +11802,19 @@
         <v>1842702</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1818683</v>
+        <v>1819125</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1865271</v>
+        <v>1866611</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.927716306584884</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.9156237564833581</v>
+        <v>0.915846107774912</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9390787007966297</v>
+        <v>0.9397533258770207</v>
       </c>
     </row>
     <row r="57">
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3090</v>
+        <v>2672</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006725031391935576</v>
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03797611741664659</v>
+        <v>0.03283870178876586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3026</v>
+        <v>2691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003733864482466883</v>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0206483677684589</v>
+        <v>0.01835774344724183</v>
       </c>
     </row>
     <row r="6">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3157</v>
+        <v>3340</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0102811859589614</v>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0484193948738391</v>
+        <v>0.05123821116838297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -12284,16 +12284,16 @@
         <v>472</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4323</v>
+        <v>4279</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01831226647664908</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005800838863468393</v>
+        <v>0.005803404815109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0531271554254131</v>
+        <v>0.05257480428420831</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -12302,19 +12302,19 @@
         <v>2160</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>502</v>
+        <v>628</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5319</v>
+        <v>5791</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01474019359077485</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003425319026878421</v>
+        <v>0.004283675508167048</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03628660401669085</v>
+        <v>0.03951122144524101</v>
       </c>
     </row>
     <row r="7">
@@ -12331,19 +12331,19 @@
         <v>5134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1845</v>
+        <v>1821</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11607</v>
+        <v>11343</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07875039686696694</v>
+        <v>0.07875039686696693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02830493108983963</v>
+        <v>0.02793632979845754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1780362590364601</v>
+        <v>0.1739886993722914</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -12352,19 +12352,19 @@
         <v>6749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3658</v>
+        <v>3521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11694</v>
+        <v>11545</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08293408427881187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04495490932661338</v>
+        <v>0.0432688446664917</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1436973316417365</v>
+        <v>0.1418691738470176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -12373,19 +12373,19 @@
         <v>11883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7123</v>
+        <v>7104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19161</v>
+        <v>19461</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08107325915896517</v>
+        <v>0.08107325915896518</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04859848134037154</v>
+        <v>0.04846824752896481</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1307276162265674</v>
+        <v>0.1327752061924561</v>
       </c>
     </row>
     <row r="8">
@@ -12402,19 +12402,19 @@
         <v>59389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52759</v>
+        <v>52790</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62762</v>
+        <v>62778</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9109684171740717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8092701625390915</v>
+        <v>0.809751051498079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9627036538733408</v>
+        <v>0.9629488037682794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -12423,19 +12423,19 @@
         <v>72593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67735</v>
+        <v>67520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76221</v>
+        <v>76127</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8920286178526036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8323323755835693</v>
+        <v>0.8296854523399539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9366027934405693</v>
+        <v>0.9354457615207541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>186</v>
@@ -12444,19 +12444,19 @@
         <v>131981</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>124158</v>
+        <v>124185</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>136958</v>
+        <v>137003</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9004526827677931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8470806996821516</v>
+        <v>0.8472636169659142</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.934408728501006</v>
+        <v>0.9347156623522627</v>
       </c>
     </row>
     <row r="9">
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3522</v>
+        <v>3570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006939135381458466</v>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03476334646852704</v>
+        <v>0.03523734856736593</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3789</v>
+        <v>4151</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003775841245542166</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02034622358446917</v>
+        <v>0.02229414235201395</v>
       </c>
     </row>
     <row r="11">
@@ -12658,19 +12658,19 @@
         <v>4917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1312</v>
+        <v>1327</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11202</v>
+        <v>11859</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0579196216916697</v>
+        <v>0.05791962169166973</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01545819958113803</v>
+        <v>0.01563762085427096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1319604568136949</v>
+        <v>0.1396975199018164</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -12679,19 +12679,19 @@
         <v>3241</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8011</v>
+        <v>7983</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03199110197488536</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007219588014771274</v>
+        <v>0.007715232981039976</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07906138757995888</v>
+        <v>0.07878720428577832</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -12700,19 +12700,19 @@
         <v>8158</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3709</v>
+        <v>3798</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16065</v>
+        <v>16394</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04381095125931528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01991721075054638</v>
+        <v>0.020397068890137</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08627232592104687</v>
+        <v>0.0880415045497962</v>
       </c>
     </row>
     <row r="13">
@@ -12729,19 +12729,19 @@
         <v>3413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8916</v>
+        <v>9312</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04020387425279001</v>
+        <v>0.04020387425279003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01190504432127121</v>
+        <v>0.01197901536816471</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1050312603042021</v>
+        <v>0.1097041083791871</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -12750,19 +12750,19 @@
         <v>4063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1335</v>
+        <v>1384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8899</v>
+        <v>8879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04009672732252798</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01317117717657375</v>
+        <v>0.01365460916886151</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08782705231971309</v>
+        <v>0.08762450740581461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -12771,19 +12771,19 @@
         <v>7476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3474</v>
+        <v>3336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14973</v>
+        <v>13574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04014557162913784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01865702796706038</v>
+        <v>0.01791507366569737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08040879718705148</v>
+        <v>0.07289396459470167</v>
       </c>
     </row>
     <row r="14">
@@ -12800,19 +12800,19 @@
         <v>76558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70160</v>
+        <v>69365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81452</v>
+        <v>81416</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9018765040555401</v>
+        <v>0.9018765040555403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8265150095689952</v>
+        <v>0.8171472629285946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9595321997914174</v>
+        <v>0.959107211778669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -12821,19 +12821,19 @@
         <v>93318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87373</v>
+        <v>87755</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97601</v>
+        <v>97183</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9209730353211281</v>
+        <v>0.9209730353211282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8623052473715362</v>
+        <v>0.8660714019299097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9632425041534712</v>
+        <v>0.9591213185552409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -12842,19 +12842,19 @@
         <v>169875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160066</v>
+        <v>160154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176016</v>
+        <v>176022</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9122676358660047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8595877249325083</v>
+        <v>0.8600635738417137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9452435227925835</v>
+        <v>0.9452784941973792</v>
       </c>
     </row>
     <row r="15">
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5020</v>
+        <v>7210</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0190730894136449</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07838178805355402</v>
+        <v>0.1125678472948748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -13030,16 +13030,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6232</v>
+        <v>6058</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.008584252430430338</v>
+        <v>0.008584252430430336</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04378948481217403</v>
+        <v>0.04256579728179472</v>
       </c>
     </row>
     <row r="18">
@@ -13056,19 +13056,19 @@
         <v>3115</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>890</v>
+        <v>670</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7218</v>
+        <v>7861</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04862626919060328</v>
+        <v>0.04862626919060327</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01389431113640617</v>
+        <v>0.01046694561499559</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1127006419276522</v>
+        <v>0.1227396198981535</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -13077,19 +13077,19 @@
         <v>4898</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2440</v>
+        <v>2511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9459</v>
+        <v>9504</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06259030779502626</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03118215798288817</v>
+        <v>0.03208622622086103</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1208584348183997</v>
+        <v>0.1214386421530091</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -13098,19 +13098,19 @@
         <v>8013</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4474</v>
+        <v>4148</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13639</v>
+        <v>13575</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0563054931156128</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03143933926389911</v>
+        <v>0.02915023682925422</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09583970550952189</v>
+        <v>0.09538851751335423</v>
       </c>
     </row>
     <row r="19">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7385</v>
+        <v>5563</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0190730894136449</v>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.115298971912443</v>
+        <v>0.08684993797277965</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -13148,19 +13148,19 @@
         <v>1967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5398</v>
+        <v>5308</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0251342063525211</v>
+        <v>0.02513420635252109</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007902038074613536</v>
+        <v>0.007749067003382237</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06897886636994659</v>
+        <v>0.06782673523778351</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -13169,19 +13169,19 @@
         <v>3189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>668</v>
+        <v>1242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8485</v>
+        <v>8193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02240627084688413</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004690710267342436</v>
+        <v>0.008729194626831423</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05962334248687538</v>
+        <v>0.05756939442892483</v>
       </c>
     </row>
     <row r="20">
@@ -13198,19 +13198,19 @@
         <v>58492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52458</v>
+        <v>52622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61741</v>
+        <v>61935</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.913227551982107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8190172474952636</v>
+        <v>0.8215777659911031</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9639430185302307</v>
+        <v>0.9669839547742657</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>109</v>
@@ -13219,19 +13219,19 @@
         <v>71396</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66367</v>
+        <v>66485</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74425</v>
+        <v>74763</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9122754858524526</v>
+        <v>0.9122754858524528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8480271668958314</v>
+        <v>0.8495252070086846</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9509817377793027</v>
+        <v>0.9553091906697442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>179</v>
@@ -13240,19 +13240,19 @@
         <v>129888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122777</v>
+        <v>123299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>134759</v>
+        <v>134943</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9127039836070729</v>
+        <v>0.9127039836070727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8627395981549945</v>
+        <v>0.8664038844275275</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9469348470556664</v>
+        <v>0.9482240315519216</v>
       </c>
     </row>
     <row r="21">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8259</v>
+        <v>8058</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0185037133311605</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0982955788563727</v>
+        <v>0.09590045317146816</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4248</v>
+        <v>4655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01203997736123857</v>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03747982579559365</v>
+        <v>0.04107589792498677</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -13433,19 +13433,19 @@
         <v>2919</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9249</v>
+        <v>9044</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01479195767658412</v>
+        <v>0.01479195767658413</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003298026562133824</v>
+        <v>0.003522912642098488</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04686131746213307</v>
+        <v>0.04582593429163292</v>
       </c>
     </row>
     <row r="24">
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11279</v>
+        <v>10716</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03812361059602052</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1342279201944541</v>
+        <v>0.1275314037998032</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -13483,19 +13483,19 @@
         <v>6905</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3411</v>
+        <v>3179</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12436</v>
+        <v>14564</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06092346771433671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03009592616400389</v>
+        <v>0.02805400101152726</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1097268613536525</v>
+        <v>0.1285053117576037</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -13504,19 +13504,19 @@
         <v>10108</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4998</v>
+        <v>5127</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19387</v>
+        <v>18396</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05121627078143734</v>
+        <v>0.05121627078143735</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02532522956171677</v>
+        <v>0.02597619849689992</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0982315555316913</v>
+        <v>0.09321173465353343</v>
       </c>
     </row>
     <row r="25">
@@ -13533,19 +13533,19 @@
         <v>4496</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1638</v>
+        <v>1489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9183</v>
+        <v>9790</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05351126190375921</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01948984557749889</v>
+        <v>0.01771459372432604</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1092909918713063</v>
+        <v>0.1165067745842519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -13554,19 +13554,19 @@
         <v>1584</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4671</v>
+        <v>4457</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01397766749887328</v>
+        <v>0.01397766749887327</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003695617353830257</v>
+        <v>0.003713423870627891</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04121517113844016</v>
+        <v>0.03932267602418879</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -13575,19 +13575,19 @@
         <v>6081</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2806</v>
+        <v>2794</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10336</v>
+        <v>11202</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03080936887147982</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01421558521367083</v>
+        <v>0.01415891353043013</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05237230869848437</v>
+        <v>0.05675797347887822</v>
       </c>
     </row>
     <row r="26">
@@ -13604,19 +13604,19 @@
         <v>74772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66590</v>
+        <v>65915</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>79909</v>
+        <v>79742</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8898614141690598</v>
+        <v>0.8898614141690601</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7924886719053339</v>
+        <v>0.7844444692488947</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9509923195678793</v>
+        <v>0.9490038068960982</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>152</v>
@@ -13625,19 +13625,19 @@
         <v>103479</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97859</v>
+        <v>95929</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>108017</v>
+        <v>107990</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9130588874255515</v>
+        <v>0.9130588874255514</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8634724407770767</v>
+        <v>0.8464384698536838</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9531058415918081</v>
+        <v>0.9528632173500038</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>218</v>
@@ -13646,19 +13646,19 @@
         <v>178251</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>168776</v>
+        <v>169120</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>184910</v>
+        <v>185658</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9031824026704985</v>
+        <v>0.9031824026704987</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.855170772580289</v>
+        <v>0.8569133182655526</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9369226695485885</v>
+        <v>0.940713697817122</v>
       </c>
     </row>
     <row r="27">
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2380</v>
+        <v>2453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0140465990147746</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08053885656822696</v>
+        <v>0.08300772543945117</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -13834,16 +13834,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2582</v>
+        <v>2086</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.008463761581448591</v>
+        <v>0.008463761581448589</v>
       </c>
       <c r="V29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0526465875517388</v>
+        <v>0.04254571323274579</v>
       </c>
     </row>
     <row r="30">
@@ -13863,16 +13863,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3407</v>
+        <v>4458</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04002699850533515</v>
+        <v>0.04002699850533516</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.174799303436778</v>
+        <v>0.2287330778374345</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -13881,19 +13881,19 @@
         <v>2020</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6075</v>
+        <v>6176</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06835476236086115</v>
+        <v>0.06835476236086116</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01329158721560671</v>
+        <v>0.01336012556359115</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2056185286012627</v>
+        <v>0.2090303072383372</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -13902,19 +13902,19 @@
         <v>2800</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7102</v>
+        <v>8216</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05709585902855244</v>
+        <v>0.05709585902855243</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01617437310703832</v>
+        <v>0.01669387135867189</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1448278381140822</v>
+        <v>0.1675541788433617</v>
       </c>
     </row>
     <row r="31">
@@ -13934,16 +13934,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3465</v>
+        <v>3683</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0376796906188344</v>
+        <v>0.03767969061883441</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1777756715495135</v>
+        <v>0.18895632308876</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -13952,19 +13952,19 @@
         <v>1673</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3877</v>
+        <v>3910</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.05663152808504247</v>
+        <v>0.05663152808504248</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01362519241103508</v>
+        <v>0.01441730258247473</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1312005082064346</v>
+        <v>0.1323339504964225</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -13973,19 +13973,19 @@
         <v>2408</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5294</v>
+        <v>5134</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0490990978131049</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01528824724089765</v>
+        <v>0.01625834221505334</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1079652858469373</v>
+        <v>0.1047040075810469</v>
       </c>
     </row>
     <row r="32">
@@ -14002,16 +14002,16 @@
         <v>17975</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14748</v>
+        <v>14289</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>19490</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9222933108758303</v>
+        <v>0.9222933108758304</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7566777795386025</v>
+        <v>0.7331339378247791</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -14023,19 +14023,19 @@
         <v>25439</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21816</v>
+        <v>21691</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27796</v>
+        <v>27821</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8609671105393216</v>
+        <v>0.8609671105393217</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7383561686828326</v>
+        <v>0.734132893515396</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9407470160330981</v>
+        <v>0.9415707636136064</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>82</v>
@@ -14044,19 +14044,19 @@
         <v>43414</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>38681</v>
+        <v>38327</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>46100</v>
+        <v>46397</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8853412815768941</v>
+        <v>0.8853412815768937</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7888081617326351</v>
+        <v>0.7815967197988326</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9401065399429481</v>
+        <v>0.9461629137625338</v>
       </c>
     </row>
     <row r="33">
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2504</v>
+        <v>2581</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008871402237535759</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04895479078541193</v>
+        <v>0.05046991575313742</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -14263,19 +14263,19 @@
         <v>3884</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1745</v>
+        <v>1704</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8467</v>
+        <v>7902</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06508591958079052</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02924126446403992</v>
+        <v>0.02855467703544885</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1418870986511341</v>
+        <v>0.1324146378118539</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -14284,19 +14284,19 @@
         <v>4338</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1977</v>
+        <v>2013</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8697</v>
+        <v>9255</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.03914154573874872</v>
+        <v>0.03914154573874871</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01784123208083087</v>
+        <v>0.01816248103340289</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07847849092978867</v>
+        <v>0.08350887976248239</v>
       </c>
     </row>
     <row r="37">
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3831</v>
+        <v>3596</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0192199998770389</v>
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07490140199780938</v>
+        <v>0.07029760516354938</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -14350,16 +14350,16 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3366</v>
+        <v>3088</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.008870499750252295</v>
+        <v>0.008870499750252293</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03036986360701052</v>
+        <v>0.02786337507621184</v>
       </c>
     </row>
     <row r="38">
@@ -14376,19 +14376,19 @@
         <v>49710</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>46879</v>
+        <v>47194</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>50711</v>
+        <v>50699</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9719085978854253</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9165598339009058</v>
+        <v>0.9227082308330974</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9914749428840226</v>
+        <v>0.9912447310592118</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>105</v>
@@ -14397,19 +14397,19 @@
         <v>55791</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>51208</v>
+        <v>51773</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>57930</v>
+        <v>57971</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9349140804192094</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8581129013488659</v>
+        <v>0.8675853621881464</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.97075873553596</v>
+        <v>0.9714453229645512</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>181</v>
@@ -14418,19 +14418,19 @@
         <v>105501</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>101410</v>
+        <v>101049</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>108336</v>
+        <v>108037</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9519879545109992</v>
+        <v>0.951987954510999</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9150732822758733</v>
+        <v>0.9118111217005413</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9775636563417827</v>
+        <v>0.9748654307724022</v>
       </c>
     </row>
     <row r="39">
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3411</v>
+        <v>3424</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002789634478776884</v>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01410090727468748</v>
+        <v>0.01415606609984691</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3313</v>
+        <v>3364</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001667012858537774</v>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008184301303366845</v>
+        <v>0.008309620376713669</v>
       </c>
     </row>
     <row r="41">
@@ -14585,19 +14585,19 @@
         <v>3268</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8941</v>
+        <v>8768</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0200592348501474</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005989729484149638</v>
+        <v>0.006044748838026421</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05488526090648138</v>
+        <v>0.05382656475647427</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -14606,19 +14606,19 @@
         <v>2096</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6046</v>
+        <v>5753</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.008665827533536851</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00270549364295649</v>
+        <v>0.002658973126538202</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02499405093174128</v>
+        <v>0.02378310652226668</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -14627,19 +14627,19 @@
         <v>5364</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2036</v>
+        <v>2127</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>11786</v>
+        <v>11776</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01325083158303708</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005029561834528561</v>
+        <v>0.005253868918619055</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02911648940312959</v>
+        <v>0.02909044887513255</v>
       </c>
     </row>
     <row r="42">
@@ -14656,19 +14656,19 @@
         <v>17577</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9124</v>
+        <v>9835</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29323</v>
+        <v>30247</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1079037475339185</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05600926505014084</v>
+        <v>0.06037632700152804</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1800101019395298</v>
+        <v>0.1856780147165212</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>29</v>
@@ -14677,19 +14677,19 @@
         <v>23720</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16844</v>
+        <v>16346</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>33066</v>
+        <v>33672</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09806029530496389</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06963560256764377</v>
+        <v>0.06757709944255724</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1366950949830039</v>
+        <v>0.1392021632418692</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>41</v>
@@ -14698,19 +14698,19 @@
         <v>41298</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30275</v>
+        <v>30416</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>56926</v>
+        <v>57943</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1020215570308587</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07479015873203376</v>
+        <v>0.07514014121031162</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1406295835829605</v>
+        <v>0.1431425702119687</v>
       </c>
     </row>
     <row r="43">
@@ -14727,19 +14727,19 @@
         <v>7062</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3230</v>
+        <v>3240</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14176</v>
+        <v>15043</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.04335486529212369</v>
+        <v>0.04335486529212368</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01982866836798583</v>
+        <v>0.01988878823843939</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0870257824412175</v>
+        <v>0.09234394319314707</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -14748,19 +14748,19 @@
         <v>11657</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>6878</v>
+        <v>6687</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>19774</v>
+        <v>19275</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04818905824199013</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02843447558356861</v>
+        <v>0.02764265570190957</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08174641782453725</v>
+        <v>0.07968450163252787</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>21</v>
@@ -14769,19 +14769,19 @@
         <v>18719</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>11807</v>
+        <v>12329</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>28107</v>
+        <v>29635</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.04624365300585074</v>
+        <v>0.04624365300585073</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02916767078773667</v>
+        <v>0.03045755553693861</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06943616043694911</v>
+        <v>0.07321109188345551</v>
       </c>
     </row>
     <row r="44">
@@ -14798,19 +14798,19 @@
         <v>134991</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>122924</v>
+        <v>121153</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>145180</v>
+        <v>144280</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8286821523238105</v>
+        <v>0.8286821523238107</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7546038153198819</v>
+        <v>0.7437319487781844</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8912286625198864</v>
+        <v>0.885702445644257</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>266</v>
@@ -14819,19 +14819,19 @@
         <v>203746</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>192470</v>
+        <v>192459</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>212127</v>
+        <v>213573</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8422951844407321</v>
+        <v>0.842295184440732</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7956786371332626</v>
+        <v>0.7956323545463521</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8769431018097189</v>
+        <v>0.8829204324037264</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>386</v>
@@ -14840,19 +14840,19 @@
         <v>338738</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>322274</v>
+        <v>321143</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>351782</v>
+        <v>352985</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.8368169455217158</v>
+        <v>0.8368169455217157</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7961447476711786</v>
+        <v>0.7933514977171328</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8690420052542212</v>
+        <v>0.8720131217782514</v>
       </c>
     </row>
     <row r="45">
@@ -14991,19 +14991,19 @@
         <v>2535</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7586</v>
+        <v>7282</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01595161713202513</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.004333985171758431</v>
+        <v>0.004219781306219876</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04773389350920239</v>
+        <v>0.04582115089546782</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -15012,19 +15012,19 @@
         <v>2659</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8049</v>
+        <v>7424</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.01201841758765647</v>
+        <v>0.01201841758765646</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.003312585080796761</v>
+        <v>0.003324834795393106</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03638664745751149</v>
+        <v>0.03356075192349786</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -15033,19 +15033,19 @@
         <v>5194</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1888</v>
+        <v>2129</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>10331</v>
+        <v>11234</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01366284468086161</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.004966698546646805</v>
+        <v>0.005600268746241581</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02717820943222027</v>
+        <v>0.02955241968779981</v>
       </c>
     </row>
     <row r="48">
@@ -15062,19 +15062,19 @@
         <v>4007</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11806</v>
+        <v>10263</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02521210204861094</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.006974738475279176</v>
+        <v>0.006917963938357433</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07428637956700232</v>
+        <v>0.06457697466628556</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>4</v>
@@ -15083,19 +15083,19 @@
         <v>3480</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1291</v>
+        <v>791</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>9116</v>
+        <v>8852</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01573203388325982</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.005835965679962787</v>
+        <v>0.003577441500936674</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04121004265559947</v>
+        <v>0.04001512278337461</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>7</v>
@@ -15104,19 +15104,19 @@
         <v>7487</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3350</v>
+        <v>3047</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>14766</v>
+        <v>15039</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.01969554520799157</v>
+        <v>0.01969554520799158</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.008811314326926514</v>
+        <v>0.008015300442559613</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03884301643887906</v>
+        <v>0.03956234290572272</v>
       </c>
     </row>
     <row r="49">
@@ -15133,19 +15133,19 @@
         <v>6276</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>2549</v>
+        <v>2482</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>14021</v>
+        <v>13815</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03948886147221155</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01604030021148669</v>
+        <v>0.0156144794975152</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08821936184598707</v>
+        <v>0.08692155036142131</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>12</v>
@@ -15154,19 +15154,19 @@
         <v>7993</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>4099</v>
+        <v>4527</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>13046</v>
+        <v>13574</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.03613212077226436</v>
+        <v>0.03613212077226435</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01852961706429843</v>
+        <v>0.02046643976213588</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05897517255464829</v>
+        <v>0.06136222703064997</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>18</v>
@@ -15175,19 +15175,19 @@
         <v>14269</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>9202</v>
+        <v>8327</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>23381</v>
+        <v>22458</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.03753553681805351</v>
+        <v>0.03753553681805352</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02420798597842025</v>
+        <v>0.02190444933041201</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06150716388290066</v>
+        <v>0.05907815878062921</v>
       </c>
     </row>
     <row r="50">
@@ -15204,19 +15204,19 @@
         <v>146113</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>136602</v>
+        <v>137332</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>151993</v>
+        <v>152304</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9193474193471523</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8595062587883683</v>
+        <v>0.8640983666450398</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9563489103213718</v>
+        <v>0.9583043892872353</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>285</v>
@@ -15225,19 +15225,19 @@
         <v>207075</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>199707</v>
+        <v>199279</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>212729</v>
+        <v>212253</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.9361174277568195</v>
+        <v>0.9361174277568193</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9028087190859556</v>
+        <v>0.9008745767531749</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9616785946222564</v>
+        <v>0.9595280875278515</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>444</v>
@@ -15246,19 +15246,19 @@
         <v>353189</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>342157</v>
+        <v>341742</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>361175</v>
+        <v>361911</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.9291060732930931</v>
+        <v>0.9291060732930935</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9000852941535427</v>
+        <v>0.8989949641355989</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9501143734785276</v>
+        <v>0.9520507663608601</v>
       </c>
     </row>
     <row r="51">
@@ -15366,16 +15366,16 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>4196</v>
+        <v>4186</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.001487021885964802</v>
+        <v>0.001487021885964803</v>
       </c>
       <c r="O52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.004528022489978373</v>
+        <v>0.004518022260205613</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2</v>
@@ -15387,16 +15387,16 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>4865</v>
+        <v>4713</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.0008520073477651509</v>
+        <v>0.000852007347765151</v>
       </c>
       <c r="V52" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.003007900553873043</v>
+        <v>0.002914279692345703</v>
       </c>
     </row>
     <row r="53">
@@ -15413,19 +15413,19 @@
         <v>8579</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4108</v>
+        <v>3718</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>16189</v>
+        <v>17112</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.0124225129564568</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.005948012420078756</v>
+        <v>0.005383817156820905</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02344166511815379</v>
+        <v>0.02477777645897943</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>10</v>
@@ -15434,19 +15434,19 @@
         <v>7082</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>3409</v>
+        <v>3331</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>12481</v>
+        <v>12282</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.007642391785542767</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.003679117454300635</v>
+        <v>0.003594547795519258</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01346978072930022</v>
+        <v>0.0132550725275813</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>18</v>
@@ -15455,19 +15455,19 @@
         <v>15661</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>9681</v>
+        <v>9275</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>26797</v>
+        <v>25283</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.009683684160951826</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.005985864501909925</v>
+        <v>0.005735028874719614</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01656957581191504</v>
+        <v>0.01563354633240819</v>
       </c>
     </row>
     <row r="54">
@@ -15484,19 +15484,19 @@
         <v>34723</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>23237</v>
+        <v>22929</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>48991</v>
+        <v>51434</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.05027787254579798</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.03364599479002293</v>
+        <v>0.03320105141625106</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.07093793154693168</v>
+        <v>0.07447440625579667</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>67</v>
@@ -15505,19 +15505,19 @@
         <v>49639</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>37857</v>
+        <v>38782</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>63604</v>
+        <v>64065</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.05356952315411093</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.04085448578681573</v>
+        <v>0.04185361856357514</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.0686404718457216</v>
+        <v>0.06913785747978582</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>95</v>
@@ -15526,19 +15526,19 @@
         <v>84362</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>67613</v>
+        <v>68310</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>104663</v>
+        <v>105460</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.05216386395656907</v>
+        <v>0.05216386395656908</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.04180780049508721</v>
+        <v>0.04223835334490707</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.06471665360135147</v>
+        <v>0.06520960192287968</v>
       </c>
     </row>
     <row r="55">
@@ -15555,19 +15555,19 @@
         <v>29321</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>20401</v>
+        <v>20104</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>40784</v>
+        <v>42125</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.04245531159561042</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02953998423742166</v>
+        <v>0.02910973940536851</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05905336286018423</v>
+        <v>0.0609953285854327</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>53</v>
@@ -15576,19 +15576,19 @@
         <v>35686</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>27299</v>
+        <v>26971</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>46347</v>
+        <v>47597</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.03851167720165183</v>
+        <v>0.03851167720165184</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.02946129009358391</v>
+        <v>0.02910709844728325</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.05001753904338537</v>
+        <v>0.05136670901960955</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>84</v>
@@ -15597,19 +15597,19 @@
         <v>65006</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>50978</v>
+        <v>50897</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>80338</v>
+        <v>79733</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.04019575811340187</v>
+        <v>0.04019575811340188</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.03152128672434613</v>
+        <v>0.03147136213396671</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.04967598041705509</v>
+        <v>0.04930200085823461</v>
       </c>
     </row>
     <row r="56">
@@ -15626,19 +15626,19 @@
         <v>618001</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>598198</v>
+        <v>599394</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>633897</v>
+        <v>633819</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.8948443029021347</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8661708594258917</v>
+        <v>0.867901476092824</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9178605162390667</v>
+        <v>0.9177478982190281</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1219</v>
@@ -15647,19 +15647,19 @@
         <v>832836</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>816522</v>
+        <v>813520</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>847499</v>
+        <v>846921</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.8987893859727295</v>
+        <v>0.8987893859727296</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.8811835461371194</v>
+        <v>0.8779430478446073</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.914613535190677</v>
+        <v>0.913989103178834</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1864</v>
@@ -15668,19 +15668,19 @@
         <v>1450837</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1425121</v>
+        <v>1424831</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1473119</v>
+        <v>1473392</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.8971046864213119</v>
+        <v>0.897104686421312</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.8812035965012458</v>
+        <v>0.8810240313286459</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9108826132926011</v>
+        <v>0.9110511662992901</v>
       </c>
     </row>
     <row r="57">
